--- a/notas_fiscais.xlsx
+++ b/notas_fiscais.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -425,22 +425,21 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="4" customWidth="1" min="1" max="1"/>
-    <col width="42" customWidth="1" min="2" max="2"/>
+    <col width="42" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
     <col width="11" customWidth="1" min="3" max="3"/>
-    <col width="12" customWidth="1" min="4" max="4"/>
-    <col width="6" customWidth="1" min="5" max="5"/>
+    <col width="6" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Nº</t>
+          <t>Emitente</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Emitente</t>
+          <t>Vencimento</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -448,130 +447,107 @@
           <t>Valor</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Vencimento</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="n"/>
+      <c r="D1" s="1" t="n"/>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>EMPORIO MeL COMERCIO DE ALIMENTOS E BEBI</t>
+        </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>20/08/2025</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>R$ 500,74</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
           <t>EMPORIO MeL COMERCIO DE ALIMENTOS E BEBI</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>20/08/2025</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
         <is>
           <t>R$ 500,74</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>EMPORIO MeL COMERCIO DE ALIMENTOS E BEBI</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
         <is>
           <t>20/08/2025</t>
         </is>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="inlineStr">
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>R$ 500,74</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
         <is>
           <t>EMPORIO MeL COMERCIO DE ALIMENTOS E BEBI</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>20/08/2025</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
         <is>
           <t>R$ 500,74</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>EMPORIO MeL COMERCIO DE ALIMENTOS E BEBI</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>20/08/2025</t>
         </is>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="inlineStr">
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>R$ 500,74</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
         <is>
           <t>EMPORIO MeL COMERCIO DE ALIMENTOS E BEBI</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>20/08/2025</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>R$ 500,74</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>20/08/2025</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>EMPORIO MeL COMERCIO DE ALIMENTOS E BEBI</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>R$ 500,74</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>20/08/2025</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>EMPORIO MeL COMERCIO DE ALIMENTOS E BEBI</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>R$ 500,74</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>20/08/2025</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>EMPORIO MeL COMERCIO DE ALIMENTOS E BEBI</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>R$ 500,74</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>20/08/2025</t>
         </is>
       </c>
     </row>
